--- a/biology/Botanique/Duftwolke/Duftwolke.xlsx
+++ b/biology/Botanique/Duftwolke/Duftwolke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Duftwolke' ('Nuage Parfumé' dans les pays francophones, ou 'Fragrant Cloud' aux États-Unis ; nom commercial 'TANellis') est un cultivar de rosier obtenu par le rosiériste allemand Mathias Tantau junior en 1963 et commercialisé en Allemagne à partir de 1964. C'est un hybride de thé parmi les plus répandus au monde.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les boutons rouges de la rose 'Nuage Parfumé' donnent peu à peu naissance à des fleurs de couleur corail au parfum fruité et citronné pouvant atteindre 13 à 15 cm de diamètre. Elles fleurissent abondamment à la fin du printemps, puis de manière plus espacée pendant le reste de la saison[1] en bouquets de trois à sept fleurs (26 à 40 pétales)[2], mais supportent mal la pluie[3]. Leur tige est plutôt courte et elles tiennent bien dans les vases.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les boutons rouges de la rose 'Nuage Parfumé' donnent peu à peu naissance à des fleurs de couleur corail au parfum fruité et citronné pouvant atteindre 13 à 15 cm de diamètre. Elles fleurissent abondamment à la fin du printemps, puis de manière plus espacée pendant le reste de la saison en bouquets de trois à sept fleurs (26 à 40 pétales), mais supportent mal la pluie. Leur tige est plutôt courte et elles tiennent bien dans les vases.
 'Nuage Parfumé' forme un buisson droit atteignant 1,50 m de hauteur et 60 cm de largeur, ce qui la rend idéale pour les jardins ou les fleurs coupées. Sa zone de rusticité s'étend de 7 b (-15°) à 10 b. Elle tolère la mi-ombre.
-'Nuage Parfumé' est un croisement de 'Prima Ballerina' (hybride de thé, Tantau, 1957) x 'Montezuma' (grandiflora, Swim, 1955)[2].
+'Nuage Parfumé' est un croisement de 'Prima Ballerina' (hybride de thé, Tantau, 1957) x 'Montezuma' (grandiflora, Swim, 1955).
 On peut notamment l'admirer à la roseraie de Cologne.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Dr. A.J. Verhage', cette variété a donné naissance à 'Just Joey' (Roger Pawsey, 1972), rose favorite du monde en 1994. Elle a donné naissance aussi à 'Alec's Red' (Cocker, 1970), par croisement avec 'Dame de Cœur' (Lens, 1958).
 </t>
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>NRS Gold, 1963 (National Rose Society of England)
 ADR-Rose, 1964
